--- a/biology/Botanique/Grenadier_commun/Grenadier_commun.xlsx
+++ b/biology/Botanique/Grenadier_commun/Grenadier_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Punica granatum · Grenadier
 Le grenadier commun ou grenadier (Punica granatum) est un arbre fruitier de la famille des Lythracées, cultivé depuis la plus haute Antiquité pour ses fruits comestibles (les grenades) et pour les qualités ornementales de ses grandes fleurs.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre monoïque autofertile à port arbustif qui peut atteindre 6 m de haut.
 Il peut vivre jusqu'à 200 ans mais est le plus productif en fruits dans ses 20 premières années de fructification.
 Son écorce est gris beige et a tendance à se crevasser et à desquamer avec l'âge.
-Ses feuilles généralement caduques, même si certaines variétés sont persistantes sous certains climats[1], sont opposées et mesurent 3 à 7 cm de long sur 1 à 2 cm de large.
-Ses fleurs rouge vif mesurent 3 cm de diamètre. Elles apparaissent en trois vagues de mai à août[2],[3],[4],[5],[6]. Les fruits de la première floraison sont ceux ayant un meilleur taux de nouaison (90 %) et qui donnent les plus gros fruits[7]. Seul 1/3 des fleurs donne un fruit car les 2/3 des fleurs sont mâles.
+Ses feuilles généralement caduques, même si certaines variétés sont persistantes sous certains climats, sont opposées et mesurent 3 à 7 cm de long sur 1 à 2 cm de large.
+Ses fleurs rouge vif mesurent 3 cm de diamètre. Elles apparaissent en trois vagues de mai à août. Les fruits de la première floraison sont ceux ayant un meilleur taux de nouaison (90 %) et qui donnent les plus gros fruits. Seul 1/3 des fleurs donne un fruit car les 2/3 des fleurs sont mâles.
 Ses fruits, les grenades, sont des baies jaunes à rouge orangé contenant en moyenne 600 semences pulpeuses. La couleur des fruits n'indique pas le degré de maturité des semences. En effet, certaines variétés donnent des épidermes bien rouges bien avant la maturité. Selon les variétés, la maturité des fruits est atteinte entre 5 et 8 mois après la floraison.
 </t>
         </is>
